--- a/excel/Indicativo - Presente.xlsx
+++ b/excel/Indicativo - Presente.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0-Coding\spingMvc\quiz-mini-springboot\quiz-mini-springboot\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="190">
   <si>
     <t>类别名称</t>
   </si>
@@ -563,19 +568,37 @@
   </si>
   <si>
     <t>piacciono</t>
+  </si>
+  <si>
+    <t>correre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>corro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>corri</t>
+  </si>
+  <si>
+    <t>corre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>corriamo</t>
+  </si>
+  <si>
+    <t>correte</t>
+  </si>
+  <si>
+    <t>corrono</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -590,158 +613,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,194 +640,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -964,317 +664,34 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1532,28 +949,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="8.5462962962963" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="65.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="65.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1570,7 +987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1584,7 +1001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1598,7 +1015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1612,7 +1029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1626,7 +1043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1640,7 +1057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1654,7 +1071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1668,7 +1085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1682,7 +1099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1696,7 +1113,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1710,7 +1127,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1724,7 +1141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1738,7 +1155,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1752,7 +1169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1766,7 +1183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1780,7 +1197,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1794,7 +1211,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1808,7 +1225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1822,7 +1239,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1836,7 +1253,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1850,7 +1267,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1864,7 +1281,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1878,7 +1295,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1892,7 +1309,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1906,7 +1323,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1920,7 +1337,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1934,7 +1351,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1948,7 +1365,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1962,7 +1379,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1976,7 +1393,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1990,7 +1407,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2004,7 +1421,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2018,7 +1435,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2032,7 +1449,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2046,7 +1463,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2060,7 +1477,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2074,7 +1491,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2088,7 +1505,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2102,7 +1519,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2116,7 +1533,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2130,7 +1547,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2144,7 +1561,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2158,7 +1575,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2172,7 +1589,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2186,7 +1603,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -2200,7 +1617,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -2214,7 +1631,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -2228,7 +1645,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2242,7 +1659,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2256,7 +1673,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -2270,7 +1687,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2284,7 +1701,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -2298,7 +1715,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -2312,7 +1729,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -2326,7 +1743,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -2340,7 +1757,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -2354,7 +1771,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -2368,7 +1785,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -2382,7 +1799,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2396,7 +1813,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -2410,7 +1827,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -2424,7 +1841,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -2438,7 +1855,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -2452,7 +1869,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -2466,7 +1883,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -2480,7 +1897,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2494,7 +1911,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2508,7 +1925,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -2522,7 +1939,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -2536,7 +1953,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -2550,7 +1967,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -2564,7 +1981,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -2578,7 +1995,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -2592,7 +2009,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -2606,7 +2023,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -2620,7 +2037,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2634,7 +2051,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2648,7 +2065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -2662,7 +2079,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -2676,7 +2093,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2690,7 +2107,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -2704,7 +2121,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -2718,7 +2135,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -2732,7 +2149,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2746,7 +2163,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -2760,7 +2177,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -2774,7 +2191,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -2788,7 +2205,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -2802,7 +2219,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -2816,7 +2233,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -2830,7 +2247,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -2844,7 +2261,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -2858,7 +2275,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -2872,7 +2289,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -2886,7 +2303,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -2900,7 +2317,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2914,7 +2331,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -2928,7 +2345,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -2942,7 +2359,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -2956,7 +2373,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -2970,7 +2387,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -2984,7 +2401,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -2998,7 +2415,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -3015,7 +2432,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -3032,7 +2449,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -3049,7 +2466,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -3066,7 +2483,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -3083,7 +2500,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -3100,7 +2517,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -3114,7 +2531,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -3128,7 +2545,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -3142,7 +2559,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -3156,7 +2573,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -3170,7 +2587,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -3184,7 +2601,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -3201,7 +2618,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -3218,7 +2635,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -3235,7 +2652,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -3252,7 +2669,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -3269,7 +2686,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -3286,7 +2703,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -3303,7 +2720,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -3320,7 +2737,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -3337,7 +2754,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -3354,7 +2771,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -3371,7 +2788,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -3388,7 +2805,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -3405,7 +2822,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -3422,7 +2839,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -3439,7 +2856,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -3456,7 +2873,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -3473,7 +2890,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -3490,7 +2907,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -3504,7 +2921,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -3518,7 +2935,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -3532,7 +2949,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -3546,7 +2963,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -3560,7 +2977,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -3574,7 +2991,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -3588,7 +3005,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -3602,7 +3019,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -3616,7 +3033,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -3630,7 +3047,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -3644,7 +3061,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -3658,8 +3075,93 @@
         <v>182</v>
       </c>
     </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
+        <v>183</v>
+      </c>
+      <c r="C146" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
+        <v>183</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" t="s">
+        <v>183</v>
+      </c>
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
+        <v>183</v>
+      </c>
+      <c r="C149" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>183</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" t="s">
+        <v>183</v>
+      </c>
+      <c r="C151" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>